--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18:AB19"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CK10" sqref="CK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -923,25 +923,25 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="1">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="1">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="1">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="BV3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BW3" s="1">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="1">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BW4" s="1">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="CF4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CG4" s="1">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="AI5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BV5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BW5" s="1">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="CF5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CG5" s="1">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="BV6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BW6" s="1">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="CF6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CG6" s="1">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="1">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="CF7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CG7" s="1">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BV8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BW8" s="1">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="CF8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CG8" s="1">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="BV9" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BW9" s="1">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="CF9" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CG9" s="1">
         <v>0</v>
@@ -3294,13 +3294,13 @@
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -3384,25 +3384,25 @@
         <v>1</v>
       </c>
       <c r="AS10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="1">
         <v>1</v>
@@ -3618,5 +3618,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,175 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -526,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CK10" sqref="CK10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CP17" sqref="A8:CP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -723,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="1">
         <v>0</v>
@@ -765,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="BZ1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA1" s="1">
         <v>0</v>
@@ -810,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="CO1" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CP1" s="1">
         <v>0</v>
@@ -923,25 +1091,25 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1">
         <v>0</v>
@@ -1025,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="1">
         <v>0</v>
@@ -1067,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="BZ2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA2" s="1">
         <v>0</v>
@@ -1112,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="CO2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CP2" s="1">
         <v>0</v>
@@ -1174,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -1225,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>0</v>
@@ -1240,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>0</v>
@@ -1249,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1258,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AP3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
@@ -1321,100 +1489,100 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1">
         <v>7</v>
-      </c>
-      <c r="BL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>6</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>0</v>
       </c>
       <c r="CP3" s="1">
         <v>0</v>
@@ -1470,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -1497,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1527,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1536,187 +1704,187 @@
         <v>0</v>
       </c>
       <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="1">
         <v>7</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>6</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="1">
-        <v>0</v>
       </c>
       <c r="CP4" s="1">
         <v>0</v>
@@ -1799,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1829,22 +1997,22 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1853,85 +2021,85 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
         <v>6</v>
       </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
       <c r="BI5" s="1">
         <v>0</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="1">
         <v>0</v>
@@ -1949,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS5" s="1">
         <v>0</v>
@@ -1958,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="1">
         <v>0</v>
@@ -1970,55 +2138,55 @@
         <v>0</v>
       </c>
       <c r="BY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="1">
         <v>7</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>6</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="1">
-        <v>0</v>
       </c>
       <c r="CP5" s="1">
         <v>0</v>
@@ -2101,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -2155,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -2209,73 +2377,73 @@
         <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BM6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="1">
         <v>1</v>
       </c>
       <c r="BT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA6" s="1">
         <v>0</v>
@@ -2293,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="CF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG6" s="1">
         <v>0</v>
@@ -2320,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CP6" s="1">
         <v>0</v>
@@ -2403,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -2457,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -2508,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
@@ -2529,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK7" s="1">
         <v>0</v>
       </c>
       <c r="BL7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="1">
         <v>0</v>
@@ -2559,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="BT7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU7" s="1">
         <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="1">
         <v>0</v>
@@ -2577,25 +2745,25 @@
         <v>0</v>
       </c>
       <c r="BZ7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CE7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" s="1">
         <v>0</v>
@@ -2622,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CP7" s="1">
         <v>0</v>
@@ -2687,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -2705,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -2744,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -2759,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -2780,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -2807,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC8" s="1">
         <v>0</v>
@@ -2831,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK8" s="1">
         <v>0</v>
       </c>
       <c r="BL8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="1">
         <v>0</v>
@@ -2864,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8" s="1">
         <v>0</v>
@@ -2879,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="BZ8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB8" s="1">
         <v>0</v>
@@ -2894,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="CE8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG8" s="1">
         <v>0</v>
@@ -2924,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="CO8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CP8" s="1">
         <v>0</v>
@@ -2933,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -3007,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -3016,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -3061,154 +3229,154 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1">
         <v>6</v>
       </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>4</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>6</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>0</v>
-      </c>
       <c r="CD9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG9" s="1">
         <v>0</v>
       </c>
       <c r="CH9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CJ9" s="1">
         <v>0</v>
@@ -3226,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="CO9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CP9" s="1">
         <v>0</v>
@@ -3324,28 +3492,28 @@
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="1">
         <v>1</v>
@@ -3450,13 +3618,13 @@
         <v>1</v>
       </c>
       <c r="BO10" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="1">
         <v>1</v>
@@ -3513,19 +3681,19 @@
         <v>1</v>
       </c>
       <c r="CJ10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CK10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CL10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CM10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CN10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CO10" s="1">
         <v>1</v>
@@ -3554,67 +3722,72 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A5:AN9 A3:AQ4 AO5:AQ5 A10:CV10 CA1:CO3 BM3:BZ9 AR3:BL5 AO6:BL9 A1:BZ2 CA4:CV9">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK6 A7:CV10">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP1:CV3">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+  <conditionalFormatting sqref="BC4:BH4 BL2:CV3 BK2:BK9 BJ2:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BI4">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -90,7 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -133,33 +133,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -212,26 +185,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -241,21 +197,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -266,105 +208,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -695,7 +538,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CP17" sqref="A8:CP17"/>
+      <selection activeCell="CV10" sqref="A1:CV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3723,53 +3566,53 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK6 A7:CV10">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BH4 BL2:CV3 BK2:BK9 BJ2:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -137,6 +137,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -181,33 +208,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -538,7 +538,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CV10" sqref="A1:CV10"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB1" s="1">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="CL1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM1" s="1">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="CO1" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP1" s="1">
         <v>0</v>
       </c>
       <c r="CQ1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR1" s="1">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="CL2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM2" s="1">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="CO2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP2" s="1">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="CR2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS2" s="1">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
@@ -1332,25 +1332,25 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="1">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="CB3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC3" s="1">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="CI3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ3" s="1">
         <v>0</v>
@@ -1416,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="CL3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM3" s="1">
         <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CO3" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP3" s="1">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="1">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="1">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="CH4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CI4" s="1">
         <v>0</v>
@@ -1718,31 +1718,31 @@
         <v>0</v>
       </c>
       <c r="CL4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO4" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CP4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ4" s="1">
         <v>0</v>
       </c>
       <c r="CR4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU4" s="1">
         <v>0</v>
@@ -1795,25 +1795,25 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1828,70 +1828,70 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="1">
         <v>0</v>
@@ -1915,31 +1915,31 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="1">
         <v>1</v>
       </c>
       <c r="BK5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>0</v>
@@ -1969,43 +1969,43 @@
         <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH5" s="1">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="CO5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ5" s="1">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="1">
         <v>0</v>
@@ -2217,70 +2217,70 @@
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BT6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY6" s="1">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="CG6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH6" s="1">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ6" s="1">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="1">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="BQ7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT7" s="1">
         <v>5</v>
@@ -2591,64 +2591,64 @@
         <v>0</v>
       </c>
       <c r="CA7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CF7" s="1">
         <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CI7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CN7" s="1">
         <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU7" s="1">
         <v>0</v>
@@ -2692,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -2818,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD8" s="1">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="1">
         <v>0</v>
@@ -2857,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="BO8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BP8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS8" s="1">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV8" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="CA8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC8" s="1">
         <v>0</v>
@@ -2905,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="CE8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CF8" s="1">
         <v>0</v>
       </c>
       <c r="CG8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH8" s="1">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="CO8" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP8" s="1">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -3102,28 +3102,28 @@
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
       </c>
       <c r="BC9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD9" s="1">
         <v>0</v>
@@ -3138,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI9" s="1">
         <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="1">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BO9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BP9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS9" s="1">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="BV9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BW9" s="1">
         <v>0</v>
@@ -3189,37 +3189,37 @@
         <v>0</v>
       </c>
       <c r="BY9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BZ9" s="1">
         <v>0</v>
       </c>
       <c r="CA9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB9" s="1">
         <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="1">
         <v>0</v>
       </c>
       <c r="CE9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CF9" s="1">
         <v>0</v>
       </c>
       <c r="CG9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CI9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ9" s="1">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="CO9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP9" s="1">
         <v>0</v>
@@ -3335,28 +3335,28 @@
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>1</v>
@@ -3425,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="BC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="1">
         <v>1</v>
@@ -3449,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="BK10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BM10" s="1">
         <v>1</v>
@@ -3524,19 +3524,19 @@
         <v>1</v>
       </c>
       <c r="CJ10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO10" s="1">
         <v>1</v>
@@ -3565,54 +3565,54 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK6 A7:CV10">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK2 A10:CV10 BI7:CV9 BI3:BK6 A3:BH9">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BH4 BL2:CV3 BK2:BK9 BJ2:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+  <conditionalFormatting sqref="BL2:CV3 BK2:BK9 BJ2:BJ5 BF2:BI2 CN4:CO9 BE1:CV1 BG3:BH4 BI3">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW22" sqref="BU21:BW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW22" sqref="BU21:BW22"/>
+      <selection activeCell="CP15" sqref="BJ14:CP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -623,185 +623,185 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="1">
         <v>5</v>
       </c>
-      <c r="AB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH1" s="1">
-        <v>0</v>
-      </c>
       <c r="CI1" s="1">
         <v>0</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="CL1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM1" s="1">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="CQ1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CR1" s="1">
         <v>0</v>
@@ -925,185 +925,185 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
         <v>5</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>0</v>
-      </c>
       <c r="CI2" s="1">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="CL2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM2" s="1">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="CR2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS2" s="1">
         <v>0</v>
@@ -1167,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1227,187 +1227,187 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
         <v>5</v>
       </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>8</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>8</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>0</v>
-      </c>
       <c r="CI3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="1">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="CL3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM3" s="1">
         <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CO3" s="1">
         <v>0</v>
@@ -1469,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1529,185 +1529,185 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>8</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
         <v>5</v>
       </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="1">
-        <v>4</v>
-      </c>
       <c r="CI4" s="1">
         <v>0</v>
       </c>
@@ -1718,31 +1718,31 @@
         <v>0</v>
       </c>
       <c r="CL4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ4" s="1">
         <v>0</v>
       </c>
       <c r="CR4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CU4" s="1">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1795,25 +1795,25 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1828,73 +1828,73 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1915,31 +1915,31 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BO5" s="1">
         <v>0</v>
@@ -1966,50 +1966,50 @@
         <v>0</v>
       </c>
       <c r="BT5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
         <v>5</v>
       </c>
-      <c r="BV5" s="1">
-        <v>5</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>5</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>4</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>0</v>
-      </c>
       <c r="CI5" s="1">
         <v>0</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="CP5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ5" s="1">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2112,206 +2112,206 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
         <v>7</v>
       </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1">
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>6</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="1">
         <v>5</v>
       </c>
-      <c r="AW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BT6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BU6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="1">
-        <v>4</v>
-      </c>
-      <c r="CH6" s="1">
-        <v>0</v>
-      </c>
       <c r="CI6" s="1">
         <v>0</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="CP6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ6" s="1">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -2414,220 +2414,220 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
         <v>7</v>
       </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="1">
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1">
         <v>5</v>
       </c>
-      <c r="AW7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CH7" s="1">
-        <v>4</v>
-      </c>
       <c r="CI7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CN7" s="1">
         <v>0</v>
@@ -2636,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="CP7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CR7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CU7" s="1">
         <v>0</v>
@@ -2692,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -2707,244 +2707,244 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>5</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="1">
         <v>2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>7</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>8</v>
-      </c>
-      <c r="CC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="1">
-        <v>5</v>
-      </c>
-      <c r="CH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="1">
-        <v>0</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -3018,205 +3018,205 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
         <v>7</v>
       </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1">
         <v>5</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>6</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>6</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>5</v>
-      </c>
-      <c r="CH9" s="1">
-        <v>0</v>
       </c>
       <c r="CI9" s="1">
         <v>0</v>
@@ -3317,52 +3317,52 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="1">
         <v>1</v>
@@ -3425,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="BC10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="1">
         <v>1</v>
@@ -3449,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="BK10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM10" s="1">
         <v>1</v>
@@ -3565,7 +3565,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK2 A10:CV10 BI7:CV9 BI3:BK6 A3:BH9">
+  <conditionalFormatting sqref="A1:BK6 BL4:CV6 A7:CV10 BL1:CQ3">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3585,7 +3585,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL2:CV3 BK2:BK9 BJ2:BJ5 BF2:BI2 CN4:CO9 BE1:CV1 BG3:BH4 BI3">
+  <conditionalFormatting sqref="BC4:BH4 BK2:BK9 BJ2:BJ5 AZ2:AZ6 BA6:BH6 BH5 BC2:BI3 BT4:BT7 BU7 CD4:CD7 BW7:CC7 BN4:BN8 CH4:CO9 BL2:CV3 AZ1:CV1">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -50,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,31 +73,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CP15" sqref="BJ14:CP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -607,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="1">
         <v>0</v>
@@ -661,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="1">
         <v>0</v>
@@ -670,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="AL1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP1" s="1">
         <v>0</v>
@@ -700,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="AV1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW1" s="1">
         <v>0</v>
@@ -712,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA1" s="1">
         <v>0</v>
@@ -721,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="BC1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD1" s="1">
         <v>0</v>
@@ -745,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="1">
         <v>0</v>
@@ -754,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="BN1" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BO1" s="1">
         <v>0</v>
@@ -772,37 +758,37 @@
         <v>0</v>
       </c>
       <c r="BT1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC1" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CD1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE1" s="1">
         <v>0</v>
@@ -814,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="CH1" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CI1" s="1">
         <v>0</v>
@@ -850,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="CT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU1" s="1">
         <v>0</v>
@@ -909,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -963,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>0</v>
@@ -972,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM2" s="1">
         <v>0</v>
@@ -993,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -1014,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
@@ -1023,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>0</v>
       </c>
       <c r="BE2" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="1">
         <v>0</v>
@@ -1044,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -1056,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BO2" s="1">
         <v>0</v>
@@ -1074,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="BT2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU2" s="1">
         <v>0</v>
@@ -1089,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="BY2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ2" s="1">
         <v>0</v>
@@ -1101,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE2" s="1">
         <v>0</v>
@@ -1116,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="CH2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CI2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CJ2" s="1">
         <v>0</v>
@@ -1152,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU2" s="1">
         <v>0</v>
@@ -1181,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1211,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -1223,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -1265,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>0</v>
@@ -1274,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1304,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AV3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="1">
         <v>0</v>
@@ -1316,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1337,19 +1323,19 @@
         <v>4</v>
       </c>
       <c r="BG3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="1">
         <v>0</v>
@@ -1358,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BO3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="1">
         <v>0</v>
@@ -1376,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="BT3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU3" s="1">
         <v>0</v>
@@ -1391,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="BY3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ3" s="1">
         <v>0</v>
@@ -1403,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE3" s="1">
         <v>0</v>
@@ -1418,16 +1404,16 @@
         <v>0</v>
       </c>
       <c r="CH3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -1454,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU3" s="1">
         <v>0</v>
@@ -1483,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1513,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1534,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1549,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
         <v>0</v>
@@ -1567,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>0</v>
@@ -1579,13 +1565,13 @@
         <v>4</v>
       </c>
       <c r="AM4" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP4" s="1">
         <v>0</v>
@@ -1597,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU4" s="1">
         <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="1">
         <v>0</v>
@@ -1615,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="1">
         <v>4</v>
@@ -1627,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>0</v>
@@ -1639,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="BG4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI4" s="1">
         <v>0</v>
@@ -1651,25 +1637,25 @@
         <v>0</v>
       </c>
       <c r="BK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="1">
         <v>0</v>
@@ -1678,49 +1664,49 @@
         <v>0</v>
       </c>
       <c r="BT4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
         <v>5</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="1">
-        <v>0</v>
       </c>
       <c r="CI4" s="1">
         <v>0</v>
@@ -1785,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1815,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1836,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1851,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
         <v>0</v>
@@ -1869,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1878,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP5" s="1">
         <v>0</v>
@@ -1899,16 +1885,16 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
@@ -1917,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1929,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
@@ -1944,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI5" s="1">
         <v>0</v>
@@ -1953,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1962,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BO5" s="1">
         <v>0</v>
@@ -1980,50 +1966,50 @@
         <v>0</v>
       </c>
       <c r="BT5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
         <v>5</v>
       </c>
-      <c r="BV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>0</v>
-      </c>
       <c r="CI5" s="1">
         <v>0</v>
       </c>
@@ -2061,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="CU5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CV5" s="1">
         <v>1</v>
@@ -2117,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -2131,14 +2117,14 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -2153,179 +2139,179 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB6" s="1">
         <v>6</v>
       </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
+      <c r="CC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="1">
         <v>5</v>
       </c>
-      <c r="BI6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>5</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>5</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>6</v>
-      </c>
-      <c r="CE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="1">
-        <v>0</v>
-      </c>
       <c r="CI6" s="1">
         <v>0</v>
       </c>
@@ -2333,37 +2319,37 @@
         <v>0</v>
       </c>
       <c r="CK6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CL6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CM6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CR6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CS6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV6" s="1">
         <v>1</v>
@@ -2419,28 +2405,28 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -2455,40 +2441,40 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>0</v>
@@ -2506,136 +2492,136 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1">
         <v>5</v>
       </c>
-      <c r="AU7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="1">
-        <v>0</v>
-      </c>
       <c r="CI7" s="1">
         <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CK7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CL7" s="1">
         <v>0</v>
@@ -2650,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="CP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="1">
         <v>0</v>
@@ -2665,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="CU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV7" s="1">
         <v>1</v>
@@ -2772,172 +2758,172 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
         <v>5</v>
       </c>
-      <c r="AI8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>4</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>7</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="1">
-        <v>5</v>
-      </c>
-      <c r="CD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="1">
-        <v>0</v>
-      </c>
       <c r="CI8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CK8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CL8" s="1">
         <v>0</v>
@@ -2952,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="CP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ8" s="1">
         <v>0</v>
@@ -2967,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="CU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV8" s="1">
         <v>1</v>
@@ -3044,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -3074,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>0</v>
@@ -3104,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="1">
         <v>0</v>
@@ -3143,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="BE9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="1">
         <v>0</v>
@@ -3161,34 +3147,34 @@
         <v>0</v>
       </c>
       <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
         <v>7</v>
       </c>
-      <c r="BL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>0</v>
-      </c>
       <c r="BO9" s="1">
         <v>0</v>
       </c>
-      <c r="BP9" s="2">
+      <c r="BP9" s="1">
         <v>0</v>
       </c>
       <c r="BQ9" s="1">
         <v>0</v>
       </c>
       <c r="BR9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9" s="1">
         <v>0</v>
@@ -3200,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="1">
         <v>0</v>
@@ -3215,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="1">
         <v>0</v>
@@ -3233,13 +3219,13 @@
         <v>5</v>
       </c>
       <c r="CI9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CK9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CL9" s="1">
         <v>0</v>
@@ -3254,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="CP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9" s="1">
         <v>0</v>
@@ -3269,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="CU9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV9" s="1">
         <v>1</v>
@@ -3331,52 +3317,52 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="1">
         <v>1</v>
@@ -3579,7 +3565,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BK1:CV1 A10:CV10 A1:BJ9 CO3:CS3 CO2 BK2:CN9 CO4:CV9">
+  <conditionalFormatting sqref="A1:BK6 BL4:CV6 A7:CV10 BL1:CQ3">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3599,7 +3585,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BK9 BL2:CV2 AS4:AS7 AT4 AW1:BB1 BD1:BJ3 AR2:BC3 BL3:BN3 CT1 BP3:CV3">
+  <conditionalFormatting sqref="BC4:BH4 BK2:BK9 BJ2:BJ5 AZ2:AZ6 BA6:BH6 BH5 BC2:BI3 BT4:BT7 BU7 CD4:CD7 BW7:CC7 BN4:BN8 CH4:CO9 BL2:CV3 AZ1:CV1">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3619,7 +3605,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
+  <conditionalFormatting sqref="BI4">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage2.xlsx
+++ b/LampGame/LampGame/stagedata/Stage2.xlsx
@@ -535,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM10"/>
+  <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -817,8 +817,35 @@
       <c r="CM1" s="1">
         <v>1</v>
       </c>
+      <c r="CN1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1092,8 +1119,35 @@
       <c r="CM2" s="1">
         <v>1</v>
       </c>
+      <c r="CN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1367,8 +1421,35 @@
       <c r="CM3" s="1">
         <v>1</v>
       </c>
+      <c r="CN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1642,8 +1723,35 @@
       <c r="CM4" s="1">
         <v>1</v>
       </c>
+      <c r="CN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1917,8 +2025,35 @@
       <c r="CM5" s="1">
         <v>1</v>
       </c>
+      <c r="CN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1980,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
         <v>1</v>
@@ -1992,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2192,8 +2327,35 @@
       <c r="CM6" s="1">
         <v>1</v>
       </c>
+      <c r="CN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2249,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -2467,8 +2629,35 @@
       <c r="CM7" s="1">
         <v>1</v>
       </c>
+      <c r="CN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2524,10 +2713,10 @@
         <v>4</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -2742,8 +2931,35 @@
       <c r="CM8" s="1">
         <v>1</v>
       </c>
+      <c r="CN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2799,13 +3015,13 @@
         <v>4</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
@@ -3017,8 +3233,35 @@
       <c r="CM9" s="1">
         <v>1</v>
       </c>
+      <c r="CN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3290,12 +3533,39 @@
         <v>1</v>
       </c>
       <c r="CM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV10" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BC4:CM6 A1:R10 BC1:CH3 S7:CM10 S1:BB6">
+  <conditionalFormatting sqref="A1:R10 BC1:CH3 S1:BB6 BC4:CV6 S7:CV10">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3315,7 +3585,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT4:AY4 BB2:BB9 BA2:BA5 AQ2:AQ6 AR6:AY6 AY5 AT2:AZ3 BK4:BK7 BL7 BU4:BU7 BN7:BT7 BE4:BE8 BY4:CF9 BC2:CM3 AQ1:CM1">
+  <conditionalFormatting sqref="AT4:AY4 BB2:BB9 BA2:BA5 AQ2:AQ6 AR6:AY6 AY5 AT2:AZ3 BK4:BK7 BL7 BU4:BU7 BN7:BT7 BE4:BE8 BY4:CF9 BC2:CV3 AQ1:CV1">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3346,7 +3616,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CM10">
+  <conditionalFormatting sqref="A1:CV10">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
